--- a/Data/organizeEvents/drugs_trade_names.xlsx
+++ b/Data/organizeEvents/drugs_trade_names.xlsx
@@ -1130,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1740,616 +1740,614 @@
       <c r="A112" t="s">
         <v>113</v>
       </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
-      <c r="B178" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
         <v>229</v>
       </c>
     </row>
